--- a/biology/Botanique/Vitis_acerifolia/Vitis_acerifolia.xlsx
+++ b/biology/Botanique/Vitis_acerifolia/Vitis_acerifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vitis acerifolia est une espèce de plante de la famille des Vitaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat, répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce de raisins indigène du Texas, provenant d'une région de Panhandle.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La forme de sa feuille est à l'origine de son nom, qui signifie en latin de raisin feuille d'érable, mais il conserve souvent dans la littérature son ancien nom Vitis longii (du nom de son découvreur, le colonel Long).
 </t>
@@ -573,7 +589,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Vitis acerifolia est la seconde vigne en termes de résistance au froid, après Vitis riparia.
 Contrairement à d'autres espèces rustiques et résistantes au froid, il continue à croître en automne, longtemps si le temps est clément, et peut résister à une vague de froid.
